--- a/Mediciones/TP2.xlsx
+++ b/Mediciones/TP2.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTN D\04 - Medidas Electronicas 1\ME1_TPLAB_G2_2023\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5581AEC-8ADA-4BEE-97A3-2F07DE9B287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF8618-360C-484B-A7D1-D0AE9389B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDEA0EE-96ED-4353-A67B-F00EED2ACB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7FDEA0EE-96ED-4353-A67B-F00EED2ACB93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resistencias" sheetId="1" r:id="rId1"/>
+    <sheet name="Tension1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tension2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>9.81</t>
   </si>
@@ -54,6 +56,21 @@
   </si>
   <si>
     <t>Rb [kOhm]</t>
+  </si>
+  <si>
+    <t>Vrb [V]</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.04</t>
   </si>
 </sst>
 </file>
@@ -109,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4674BB7-2A29-439B-9ACC-28FDB3703F49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,4 +481,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A333AE-0D08-4246-AD6E-81C41D9C111D}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FAA53C-EAA1-4399-8185-3F3F61A68CE0}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>